--- a/jpcore-r4/feature/ext-terminology-check/ValueSet-jp-documentcodes-diagnosticreport-vs.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/ValueSet-jp-documentcodes-diagnosticreport-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -102,16 +102,205 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>descendent-of</t>
-  </si>
-  <si>
-    <t>47045-0</t>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>28010-7</t>
+  </si>
+  <si>
+    <t>心電図報告書</t>
+  </si>
+  <si>
+    <t>12132-7</t>
+  </si>
+  <si>
+    <t>超音波検査報告書</t>
+  </si>
+  <si>
+    <t>18759-1</t>
+  </si>
+  <si>
+    <t>スパイロメトリー検査報告書</t>
+  </si>
+  <si>
+    <t>58477-1</t>
+  </si>
+  <si>
+    <t>肺機能検査報告書</t>
+  </si>
+  <si>
+    <t>76641-0</t>
+  </si>
+  <si>
+    <t>脳神経検査報告書</t>
+  </si>
+  <si>
+    <t>77199-8</t>
+  </si>
+  <si>
+    <t>PWV-CABI-ABI 報告書</t>
+  </si>
+  <si>
+    <t>18745-0</t>
+  </si>
+  <si>
+    <t>心カテ報告書</t>
+  </si>
+  <si>
+    <t>18748-4</t>
+  </si>
+  <si>
+    <t>画像検査報告書</t>
+  </si>
+  <si>
+    <t>39712-5</t>
+  </si>
+  <si>
+    <t>心筋血流 SPECT 検査報告書</t>
+  </si>
+  <si>
+    <t>39650-7</t>
+  </si>
+  <si>
+    <t>心臓核医学検査報告書</t>
+  </si>
+  <si>
+    <t>11526-1</t>
+  </si>
+  <si>
+    <t>病理検査報告書</t>
+  </si>
+  <si>
+    <t>47526-9</t>
+  </si>
+  <si>
+    <t>細胞診報告書</t>
+  </si>
+  <si>
+    <t>18743-5</t>
+  </si>
+  <si>
+    <t>剖検報告書</t>
+  </si>
+  <si>
+    <t>47048-4</t>
+  </si>
+  <si>
+    <t>IVR 報告書</t>
+  </si>
+  <si>
+    <t>59281-6</t>
+  </si>
+  <si>
+    <t>心エコー報告書</t>
+  </si>
+  <si>
+    <t>59282-4</t>
+  </si>
+  <si>
+    <t>ストレス心エコー報告書</t>
+  </si>
+  <si>
+    <t>77198-0</t>
+  </si>
+  <si>
+    <t>動脈硬化検査報告書</t>
+  </si>
+  <si>
+    <t>75218-8</t>
+  </si>
+  <si>
+    <t>研究報告書</t>
+  </si>
+  <si>
+    <t>18747-6</t>
+  </si>
+  <si>
+    <t>CT 検査報告書</t>
+  </si>
+  <si>
+    <t>18755-9</t>
+  </si>
+  <si>
+    <t>MRI 検査報告書</t>
+  </si>
+  <si>
+    <t>18751-8</t>
+  </si>
+  <si>
+    <t>上部消化管内視鏡報告書</t>
+  </si>
+  <si>
+    <t>18746-8</t>
+  </si>
+  <si>
+    <t>下部消化管内視鏡報告書</t>
+  </si>
+  <si>
+    <t>28018-0</t>
+  </si>
+  <si>
+    <t>小腸内視鏡報告書</t>
+  </si>
+  <si>
+    <t>28016-4</t>
+  </si>
+  <si>
+    <t>ERCP 報告書</t>
+  </si>
+  <si>
+    <t>18744-3</t>
+  </si>
+  <si>
+    <t>気管支鏡検査報告書</t>
+  </si>
+  <si>
+    <t>19805-1</t>
+  </si>
+  <si>
+    <t>内視鏡検査報告書</t>
+  </si>
+  <si>
+    <t>55750-4</t>
+  </si>
+  <si>
+    <t>医療安全報告書</t>
+  </si>
+  <si>
+    <t>51896-9</t>
+  </si>
+  <si>
+    <t>感染症報告書</t>
+  </si>
+  <si>
+    <t>18758-3</t>
+  </si>
+  <si>
+    <t>PET 検査報告書</t>
+  </si>
+  <si>
+    <t>17787-3</t>
+  </si>
+  <si>
+    <t>核医学検査報告書</t>
+  </si>
+  <si>
+    <t>53576-5</t>
+  </si>
+  <si>
+    <t>検診・健診報告書</t>
+  </si>
+  <si>
+    <t>11502-2</t>
+  </si>
+  <si>
+    <t>検体検査報告書</t>
+  </si>
+  <si>
+    <t>18725-2</t>
+  </si>
+  <si>
+    <t>微生物学的検査報告書</t>
   </si>
   <si>
     <t/>
@@ -389,7 +578,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -401,13 +590,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
@@ -417,13 +603,10 @@
       <c r="B2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>32</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>33</v>
@@ -435,6 +618,262 @@
       </c>
       <c r="B4" t="s" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
